--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Расстановка" sheetId="1" r:id="rId1"/>
+    <sheet name="Заявки" sheetId="2" r:id="rId2"/>
+    <sheet name="Прибытие" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="18">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -69,16 +71,10 @@
     <t>4F46GH8TY42</t>
   </si>
   <si>
-    <t>Груженый местный парк</t>
-  </si>
-  <si>
-    <t>Порожний местный парк</t>
-  </si>
-  <si>
-    <t>Груженый не местный парк</t>
-  </si>
-  <si>
-    <t>Порожний не местный парк</t>
+    <t>Трубовоз</t>
+  </si>
+  <si>
+    <t>Платформа</t>
   </si>
 </sst>
 </file>
@@ -108,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -131,14 +127,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -419,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,13 +503,13 @@
     <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>65468465138</v>
       </c>
@@ -488,11 +560,8 @@
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>65437678262</v>
       </c>
@@ -517,11 +586,8 @@
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>65468465138</v>
       </c>
@@ -535,7 +601,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
@@ -546,41 +612,869 @@
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>65468465138</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>65468465138</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>65468465138</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>65468465138</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>14</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>65468465138</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="26">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -75,6 +75,30 @@
   </si>
   <si>
     <t>Платформа</t>
+  </si>
+  <si>
+    <t>Номер заявки</t>
+  </si>
+  <si>
+    <t>Фронт</t>
+  </si>
+  <si>
+    <t>Дата заявки</t>
+  </si>
+  <si>
+    <t>Смена</t>
+  </si>
+  <si>
+    <t>testRequest</t>
+  </si>
+  <si>
+    <t>testNumNak</t>
+  </si>
+  <si>
+    <t>Труба</t>
+  </si>
+  <si>
+    <t>ТестСобственник</t>
   </si>
 </sst>
 </file>
@@ -202,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -211,6 +235,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
+      <c r="H3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1453,14 +1479,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>65437678262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9">
+        <v>45306</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="26">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -114,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +124,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -237,6 +243,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -520,7 +528,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D14" sqref="D14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,29 +595,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>65437678262</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -727,20 +735,20 @@
       <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -753,20 +761,20 @@
       <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -883,20 +891,20 @@
       <c r="C14" s="2">
         <v>12</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>14</v>
+      <c r="D14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1479,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1541,7 +1549,7 @@
         <v>24</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -1550,6 +1558,93 @@
         <v>45306</v>
       </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2">
+        <v>65437678262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9">
+        <v>45306</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <v>65437678262</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9">
+        <v>45306</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
+        <v>65437678262</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="9">
+        <v>45306</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
     </row>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расстановка" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="27">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>ТестСобственник</t>
+  </si>
+  <si>
+    <t>Вес</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:H14"/>
     </sheetView>
   </sheetViews>
@@ -1487,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,11 +1502,11 @@
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -1523,16 +1526,19 @@
         <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1551,17 +1557,20 @@
       <c r="F2">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="9">
+      <c r="I2" s="9">
         <v>45306</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1580,17 +1589,20 @@
       <c r="F3">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="9">
+      <c r="I3" s="9">
         <v>45306</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1609,17 +1621,20 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="9">
         <v>45306</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1638,13 +1653,16 @@
       <c r="F5">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <v>45306</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
       </c>
     </row>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Расстановка" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="28">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Вес</t>
+  </si>
+  <si>
+    <t>Статус</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -231,11 +234,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -248,6 +262,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +561,7 @@
     <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,8 +586,11 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>65468465138</v>
       </c>
@@ -597,8 +615,9 @@
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>65437678262</v>
       </c>
@@ -623,8 +642,9 @@
       <c r="H3" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>65468465138</v>
       </c>
@@ -649,8 +669,9 @@
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>65468465138</v>
       </c>
@@ -675,8 +696,9 @@
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>65468465138</v>
       </c>
@@ -701,8 +723,9 @@
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>65468465138</v>
       </c>
@@ -727,8 +750,9 @@
       <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>65468465138</v>
       </c>
@@ -753,8 +777,9 @@
       <c r="H8" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>65468465138</v>
       </c>
@@ -779,8 +804,9 @@
       <c r="H9" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>65468465138</v>
       </c>
@@ -805,8 +831,9 @@
       <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>65468465138</v>
       </c>
@@ -831,8 +858,9 @@
       <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>65468465138</v>
       </c>
@@ -857,8 +885,9 @@
       <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>65468465138</v>
       </c>
@@ -883,8 +912,9 @@
       <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>65468465138</v>
       </c>
@@ -909,8 +939,9 @@
       <c r="H14" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>65468465138</v>
       </c>
@@ -935,8 +966,9 @@
       <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>65468465138</v>
       </c>
@@ -961,8 +993,9 @@
       <c r="H16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>65468465138</v>
       </c>
@@ -987,8 +1020,9 @@
       <c r="H17" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>65468465138</v>
       </c>
@@ -1013,8 +1047,9 @@
       <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>65468465138</v>
       </c>
@@ -1039,8 +1074,9 @@
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>65468465138</v>
       </c>
@@ -1065,8 +1101,9 @@
       <c r="H20" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>65468465138</v>
       </c>
@@ -1091,8 +1128,9 @@
       <c r="H21" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>65468465138</v>
       </c>
@@ -1117,8 +1155,9 @@
       <c r="H22" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>65468465138</v>
       </c>
@@ -1143,8 +1182,9 @@
       <c r="H23" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>65468465138</v>
       </c>
@@ -1169,8 +1209,9 @@
       <c r="H24" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>65468465138</v>
       </c>
@@ -1195,8 +1236,9 @@
       <c r="H25" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>65468465138</v>
       </c>
@@ -1221,8 +1263,9 @@
       <c r="H26" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>65468465138</v>
       </c>
@@ -1247,8 +1290,9 @@
       <c r="H27" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>65468465138</v>
       </c>
@@ -1273,8 +1317,9 @@
       <c r="H28" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>65468465138</v>
       </c>
@@ -1299,8 +1344,9 @@
       <c r="H29" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>65468465138</v>
       </c>
@@ -1325,8 +1371,9 @@
       <c r="H30" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>65468465138</v>
       </c>
@@ -1351,8 +1398,9 @@
       <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>65468465138</v>
       </c>
@@ -1377,8 +1425,9 @@
       <c r="H32" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>65468465138</v>
       </c>
@@ -1403,8 +1452,9 @@
       <c r="H33" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>65468465138</v>
       </c>
@@ -1429,8 +1479,9 @@
       <c r="H34" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>65468465138</v>
       </c>
@@ -1455,8 +1506,9 @@
       <c r="H35" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>65468465138</v>
       </c>
@@ -1481,6 +1533,7 @@
       <c r="H36" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="I36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1492,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="28">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -546,7 +546,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D31" sqref="D31:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,20 +1248,20 @@
       <c r="C26" s="2">
         <v>8</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>14</v>
+      <c r="D26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -1333,7 +1333,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>13</v>
@@ -1383,20 +1383,20 @@
       <c r="C31" s="2">
         <v>13</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>14</v>
+      <c r="D31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -1543,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,6 +1716,70 @@
         <v>45306</v>
       </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>65437678262</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="9">
+        <v>45306</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2">
+        <v>65437678262</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="9">
+        <v>45306</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
     </row>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расстановка" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="29">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Статус</t>
+  </si>
+  <si>
+    <t>Дата изменения статуса</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31:H31"/>
     </sheetView>
   </sheetViews>
@@ -1543,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,9 +1560,10 @@
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -1590,8 +1594,14 @@
       <c r="J1" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1623,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1655,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1687,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1719,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1751,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -1549,7 +1549,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1618,7 +1618,7 @@
         <v>24</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>24</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>24</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>24</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>24</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="29">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -252,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -266,6 +266,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -549,7 +551,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:H31"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,20 +1118,20 @@
       <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>14</v>
+      <c r="F21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1236,8 +1238,8 @@
       <c r="G25" s="2">
         <v>0</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>14</v>
+      <c r="H25" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -1290,8 +1292,8 @@
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>14</v>
+      <c r="H27" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -1506,8 +1508,8 @@
       <c r="G35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>14</v>
+      <c r="H35" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -1546,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F8" sqref="F8:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1602,194 +1604,322 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="10">
         <v>65437678262</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F2" s="11">
+        <v>7</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="13">
         <v>45306</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="10">
         <v>65437678262</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F3" s="11">
+        <v>7</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="13">
         <v>45306</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="10">
         <v>65437678262</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F4" s="11">
+        <v>7</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="13">
         <v>45306</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="10">
         <v>65437678262</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" s="11">
+        <v>8</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="13">
         <v>45306</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="10">
         <v>65437678262</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F6" s="11">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="13">
         <v>45306</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="10">
         <v>65437678262</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F7" s="11">
+        <v>8</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="13">
         <v>45306</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>65437678262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="9">
+        <v>45306</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>65437678262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="9">
+        <v>45306</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>65437678262</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="9">
+        <v>45306</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <v>65437678262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="9">
+        <v>45306</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
     </row>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1812,7 +1812,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>0</v>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Расстановка" sheetId="1" r:id="rId1"/>
     <sheet name="Заявки" sheetId="2" r:id="rId2"/>
-    <sheet name="Прибытие" sheetId="3" r:id="rId3"/>
+    <sheet name="Прибытия" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="30">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Дата изменения статуса</t>
+  </si>
+  <si>
+    <t>Дата и время прибытия</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +145,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -252,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -268,6 +277,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1550,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1930,14 +1941,204 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>45306.416666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>45306.833333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>45307.250000057873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>45307.66666678241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>45308.083333506947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>45308.500000231485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>45308.916666956022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>45309.333333680559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>45309.750000405096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>45310.166667129626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>45310.583333854163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>45311.000000578701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>45311.416667303238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>45311.833334027775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>45312.250000752312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>45312.666667476849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>45313.083334201387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>45313.500000925924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>45313.916667650461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>45314.333334374998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>45314.750001099535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>45315.166667824073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>45315.58333454861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>45316.000001273147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>45316.416667997684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>45316.833334722221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>45317.250001446759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>45317.666668171296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>45318.083334895833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>45318.50000162037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>45318.916668344908</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>45319.333335069445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>45319.750001793982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>45320.166668518519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <v>45320.583335243056</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>45321.000001967594</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расстановка" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="33">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>Дата и время прибытия</t>
+  </si>
+  <si>
+    <t>9t</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -261,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -279,6 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -562,7 +572,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1561,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1630,8 +1640,8 @@
       <c r="E2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="11">
-        <v>7</v>
+      <c r="F2" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="G2" s="11">
         <v>0</v>
@@ -1662,8 +1672,8 @@
       <c r="E3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="11">
-        <v>7</v>
+      <c r="F3" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="G3" s="11">
         <v>0</v>
@@ -1694,8 +1704,8 @@
       <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11">
-        <v>7</v>
+      <c r="F4" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="11">
         <v>0</v>
@@ -1711,98 +1721,98 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="2">
         <v>65437678262</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="11">
-        <v>8</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="9">
         <v>45306</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="2">
         <v>65437678262</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="11">
-        <v>8</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="9">
         <v>45306</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="2">
         <v>65437678262</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="11">
-        <v>8</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="F7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="9">
         <v>45306</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
@@ -1822,8 +1832,8 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="11">
-        <v>10</v>
+      <c r="F8" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1839,103 +1849,104 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="10">
         <v>65437678262</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="11">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="F9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="13">
         <v>45306</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="10">
         <v>65437678262</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="11">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="13">
         <v>45306</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="10">
         <v>65437678262</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="13">
         <v>45306</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1943,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1733,8 +1733,8 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>32</v>
@@ -1765,8 +1765,8 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>32</v>
@@ -1797,8 +1797,8 @@
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>24</v>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>32</v>
@@ -1829,8 +1829,8 @@
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>32</v>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Расстановка" sheetId="1" r:id="rId1"/>
     <sheet name="Заявки" sheetId="2" r:id="rId2"/>
     <sheet name="Прибытия" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Расстановка!$A$1:$I$36</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="34">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -120,6 +123,9 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>Трубы</t>
   </si>
 </sst>
 </file>
@@ -569,10 +575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>65468465138</v>
       </c>
@@ -660,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
@@ -670,7 +677,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>65468465138</v>
       </c>
@@ -697,7 +704,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>65468465138</v>
       </c>
@@ -724,7 +731,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>65468465138</v>
       </c>
@@ -751,7 +758,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>65468465138</v>
       </c>
@@ -795,7 +802,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -822,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
@@ -832,7 +839,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>65468465138</v>
       </c>
@@ -859,7 +866,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>65468465138</v>
       </c>
@@ -886,7 +893,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>65468465138</v>
       </c>
@@ -913,7 +920,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>65468465138</v>
       </c>
@@ -957,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
@@ -967,7 +974,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>65468465138</v>
       </c>
@@ -994,7 +1001,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>65468465138</v>
       </c>
@@ -1021,7 +1028,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>65468465138</v>
       </c>
@@ -1048,7 +1055,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>65468465138</v>
       </c>
@@ -1075,7 +1082,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>65468465138</v>
       </c>
@@ -1102,7 +1109,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>65468465138</v>
       </c>
@@ -1129,7 +1136,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>65468465138</v>
       </c>
@@ -1146,7 +1153,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G21" s="14">
         <v>0</v>
@@ -1156,7 +1163,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>65468465138</v>
       </c>
@@ -1183,7 +1190,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>65468465138</v>
       </c>
@@ -1210,7 +1217,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>65468465138</v>
       </c>
@@ -1237,7 +1244,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>65468465138</v>
       </c>
@@ -1253,8 +1260,8 @@
       <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
+      <c r="F25" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -1281,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
@@ -1291,7 +1298,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>65468465138</v>
       </c>
@@ -1307,8 +1314,8 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>13</v>
+      <c r="F27" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
@@ -1318,7 +1325,7 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>65468465138</v>
       </c>
@@ -1345,7 +1352,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>65468465138</v>
       </c>
@@ -1372,7 +1379,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>65468465138</v>
       </c>
@@ -1416,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
@@ -1426,7 +1433,7 @@
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>65468465138</v>
       </c>
@@ -1453,7 +1460,7 @@
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>65468465138</v>
       </c>
@@ -1480,7 +1487,7 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>65468465138</v>
       </c>
@@ -1507,7 +1514,7 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>65468465138</v>
       </c>
@@ -1523,8 +1530,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>13</v>
+      <c r="F35" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -1534,7 +1541,7 @@
       </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>65468465138</v>
       </c>
@@ -1562,6 +1569,13 @@
       <c r="I36" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I36">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Труба"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1571,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расстановка" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="33">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>testNumNak</t>
-  </si>
-  <si>
-    <t>Труба</t>
   </si>
   <si>
     <t>ТестСобственник</t>
@@ -575,11 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>65468465138</v>
       </c>
@@ -667,17 +663,17 @@
         <v>9</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>65468465138</v>
       </c>
@@ -704,7 +700,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>65468465138</v>
       </c>
@@ -731,7 +727,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>65468465138</v>
       </c>
@@ -758,7 +754,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>65468465138</v>
       </c>
@@ -802,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -829,17 +825,17 @@
         <v>9</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>65468465138</v>
       </c>
@@ -866,7 +862,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>65468465138</v>
       </c>
@@ -893,7 +889,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>65468465138</v>
       </c>
@@ -920,7 +916,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>65468465138</v>
       </c>
@@ -964,17 +960,17 @@
         <v>9</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>65468465138</v>
       </c>
@@ -1001,7 +997,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>65468465138</v>
       </c>
@@ -1028,7 +1024,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>65468465138</v>
       </c>
@@ -1055,7 +1051,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>65468465138</v>
       </c>
@@ -1082,7 +1078,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>65468465138</v>
       </c>
@@ -1109,7 +1105,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>65468465138</v>
       </c>
@@ -1136,7 +1132,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>65468465138</v>
       </c>
@@ -1153,17 +1149,17 @@
         <v>16</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="14">
         <v>0</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>65468465138</v>
       </c>
@@ -1190,7 +1186,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>65468465138</v>
       </c>
@@ -1217,7 +1213,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>65468465138</v>
       </c>
@@ -1244,7 +1240,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>65468465138</v>
       </c>
@@ -1261,13 +1257,13 @@
         <v>16</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -1288,17 +1284,17 @@
         <v>9</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>65468465138</v>
       </c>
@@ -1315,17 +1311,17 @@
         <v>16</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>65468465138</v>
       </c>
@@ -1352,7 +1348,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>65468465138</v>
       </c>
@@ -1379,7 +1375,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>65468465138</v>
       </c>
@@ -1423,17 +1419,17 @@
         <v>9</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>65468465138</v>
       </c>
@@ -1460,7 +1456,7 @@
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>65468465138</v>
       </c>
@@ -1487,7 +1483,7 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>65468465138</v>
       </c>
@@ -1514,7 +1510,7 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>65468465138</v>
       </c>
@@ -1531,17 +1527,17 @@
         <v>16</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>65468465138</v>
       </c>
@@ -1569,13 +1565,7 @@
       <c r="I36" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I36">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Труба"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1585,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,7 +1610,7 @@
         <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>4</v>
@@ -1632,10 +1622,10 @@
         <v>21</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1652,16 +1642,16 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="13">
         <v>45306</v>
@@ -1684,16 +1674,16 @@
         <v>9</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="I3" s="13">
         <v>45306</v>
@@ -1716,16 +1706,16 @@
         <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="I4" s="13">
         <v>45306</v>
@@ -1747,17 +1737,17 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
+      <c r="E5" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="9">
         <v>45306</v>
@@ -1779,17 +1769,17 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
+      <c r="E6" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="9">
         <v>45306</v>
@@ -1811,17 +1801,17 @@
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
+      <c r="E7" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="9">
         <v>45306</v>
@@ -1843,17 +1833,17 @@
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
+      <c r="E8" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="9">
         <v>45306</v>
@@ -1876,16 +1866,16 @@
         <v>9</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="I9" s="13">
         <v>45306</v>
@@ -1908,16 +1898,16 @@
         <v>9</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="I10" s="13">
         <v>45306</v>
@@ -1940,16 +1930,16 @@
         <v>9</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="I11" s="13">
         <v>45306</v>
@@ -1979,7 +1969,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Расстановка" sheetId="1" r:id="rId1"/>
     <sheet name="Заявки" sheetId="2" r:id="rId2"/>
     <sheet name="Прибытия" sheetId="3" r:id="rId3"/>
+    <sheet name="Контактный график" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Расстановка!$A$1:$L$36</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="58">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -149,9 +150,6 @@
     <t>Ожидание отправки со станции</t>
   </si>
   <si>
-    <t>Не технологические ожидания</t>
-  </si>
-  <si>
     <t>13-2118-03</t>
   </si>
   <si>
@@ -189,6 +187,18 @@
   </si>
   <si>
     <t>Приватный</t>
+  </si>
+  <si>
+    <t>Количество вагонов</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Время разгрузки, мин</t>
+  </si>
+  <si>
+    <t>Не технологическое ожидание</t>
   </si>
 </sst>
 </file>
@@ -685,7 +695,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,14 +810,14 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>37</v>
@@ -830,7 +840,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1">
         <v>68</v>
@@ -846,7 +856,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -872,7 +882,7 @@
         <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>36</v>
@@ -882,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -908,7 +918,7 @@
         <v>68</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>36</v>
@@ -944,7 +954,7 @@
         <v>68</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>36</v>
@@ -954,7 +964,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -980,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>36</v>
@@ -1016,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>36</v>
@@ -1052,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>36</v>
@@ -1082,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>36</v>
@@ -1098,7 +1108,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1124,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>36</v>
@@ -1134,7 +1144,7 @@
         <v>35</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1160,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>36</v>
@@ -1170,7 +1180,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1196,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>36</v>
@@ -1242,7 +1252,7 @@
         <v>35</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1304,7 +1314,7 @@
         <v>68</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>39</v>
@@ -1378,7 +1388,7 @@
         <v>68</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>39</v>
@@ -1416,7 +1426,7 @@
         <v>68</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>36</v>
@@ -1452,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>36</v>
@@ -1488,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>36</v>
@@ -1524,7 +1534,7 @@
         <v>56</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>39</v>
@@ -1556,13 +1566,13 @@
         <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="1">
         <v>48</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>39</v>
@@ -1574,7 +1584,7 @@
         <v>32</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1600,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>36</v>
@@ -1610,7 +1620,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1636,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>36</v>
@@ -1672,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>36</v>
@@ -1682,7 +1692,7 @@
         <v>35</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1708,7 +1718,7 @@
         <v>68</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>36</v>
@@ -1738,13 +1748,13 @@
         <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="1">
         <v>68</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>36</v>
@@ -1754,7 +1764,7 @@
         <v>32</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1783,7 +1793,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J30" s="18">
         <v>45315</v>
@@ -1818,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>36</v>
@@ -1854,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>36</v>
@@ -1890,7 +1900,7 @@
         <v>68</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>36</v>
@@ -1929,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J34" s="18">
         <v>45315</v>
@@ -1964,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>36</v>
@@ -1974,7 +1984,7 @@
         <v>35</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2003,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J36" s="18">
         <v>45315</v>
@@ -2027,7 +2037,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2089,7 +2099,7 @@
         <v>34</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2133,7 +2143,7 @@
         <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -2177,7 +2187,7 @@
         <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2221,7 +2231,7 @@
         <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2528,13 +2538,13 @@
         <v>31</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="6">
         <v>45306</v>
@@ -2549,7 +2559,7 @@
         <v>35</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2760,4 +2770,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="57">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>Пройтись по диаграмме</t>
   </si>
   <si>
     <t>Приватный</t>
@@ -817,7 +814,7 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>37</v>
@@ -1793,7 +1790,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" s="18">
         <v>45315</v>
@@ -1939,7 +1936,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J34" s="18">
         <v>45315</v>
@@ -2013,7 +2010,7 @@
         <v>13</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J36" s="18">
         <v>45315</v>
@@ -2036,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2229,9 +2226,6 @@
       </c>
       <c r="N4" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2774,10 +2768,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2787,12 +2781,12 @@
     <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
@@ -2801,12 +2795,15 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -2819,6 +2816,9 @@
       </c>
       <c r="E2">
         <v>360</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3144" windowHeight="6924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3144" windowHeight="6924" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Расстановка" sheetId="1" r:id="rId1"/>
     <sheet name="Заявки" sheetId="2" r:id="rId2"/>
     <sheet name="Прибытия" sheetId="3" r:id="rId3"/>
-    <sheet name="Контактный график" sheetId="4" r:id="rId4"/>
+    <sheet name="Отправка" sheetId="5" r:id="rId4"/>
+    <sheet name="Контактный график" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Расстановка!$A$1:$L$36</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="58">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -196,6 +197,9 @@
   </si>
   <si>
     <t>Не технологическое ожидание</t>
+  </si>
+  <si>
+    <t>Дата и время отправки</t>
   </si>
 </sst>
 </file>
@@ -691,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2034,7 +2038,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D6" sqref="D6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2567,12 +2571,12 @@
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -2768,10 +2772,213 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>45306.416666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>45306.833333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>45307.250000057873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>45307.66666678241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>45308.083333506947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>45308.500000231485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>45308.916666956022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>45309.333333680559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>45309.750000405096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>45310.166667129626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>45310.583333854163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>45311.000000578701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>45311.416667303238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>45311.833334027775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>45312.250000752312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>45312.666667476849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>45313.083334201387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>45313.500000925924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>45313.916667650461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>45314.333334374998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>45314.750001099535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>45315.166667824073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>45315.58333454861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>45316.000001273147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>45316.416667997684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>45316.833334722221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>45317.250001446759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>45317.666668171296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>45318.083334895833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>45318.50000162037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>45318.916668344908</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>45319.333335069445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>45319.750001793982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>45320.166668518519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>45320.583335243056</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>45321.000001967594</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2796" yWindow="0" windowWidth="3156" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="2796" yWindow="0" windowWidth="3156" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Расстановка" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Заявки!$A$1:$N$1396</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Расстановка!$A$1:$L$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Расстановка!$A$1:$L$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12890" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12881" uniqueCount="57">
   <si>
     <t>Номер вагона</t>
   </si>
@@ -656,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +672,7 @@
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1620,35 +1620,35 @@
         <v>46</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C27" s="11">
-        <v>3</v>
-      </c>
-      <c r="D27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>35</v>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G27" s="11">
-        <v>58</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1659,7 +1659,7 @@
         <v>44</v>
       </c>
       <c r="C28" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -1674,7 +1674,7 @@
         <v>53</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>43</v>
@@ -1695,7 +1695,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -1710,7 +1710,7 @@
         <v>53</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>43</v>
@@ -1731,7 +1731,7 @@
         <v>44</v>
       </c>
       <c r="C30" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -1746,7 +1746,7 @@
         <v>53</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>43</v>
@@ -1767,7 +1767,7 @@
         <v>44</v>
       </c>
       <c r="C31" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -1782,12 +1782,11 @@
         <v>53</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="11"/>
       <c r="K31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1800,10 +1799,10 @@
         <v>46</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C32" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -1817,8 +1816,8 @@
       <c r="G32" s="11">
         <v>53</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>12</v>
+      <c r="H32" t="s">
+        <v>56</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>43</v>
@@ -1838,7 +1837,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -1852,12 +1851,13 @@
       <c r="G33" s="11">
         <v>53</v>
       </c>
-      <c r="H33" t="s">
-        <v>56</v>
+      <c r="H33" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="J33" s="11"/>
       <c r="K33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1865,44 +1865,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="11">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="11">
-        <v>53</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L34"/>
+  <autoFilter ref="A1:L33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1912,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60576,7 +60540,7 @@
   <dimension ref="A1:A94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61064,8 +61028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61553,7 +61517,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/motmos_zd/Исходные данные.xlsx
+++ b/motmos_zd/Исходные данные.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2796" yWindow="0" windowWidth="3156" windowHeight="0"/>
+    <workbookView xWindow="2796" yWindow="0" windowWidth="3156" windowHeight="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Расстановка" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1878,7 +1878,7 @@
   <dimension ref="A1:N1396"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61523,8 +61523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
